--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FFB42C-0FB1-4D84-8D19-05E4A9A0A375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6060ED-5CB9-492B-BCAF-D66374676547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{4D9335CE-9B5A-476C-B50C-81A6F4FA1421}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{77EBEA60-C25F-4A61-824E-AA062B412CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C8988D-6FEA-4C3E-8EB9-4F663710DDFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709A9FE8-A36F-4905-B1BD-52F5EB281991}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6060ED-5CB9-492B-BCAF-D66374676547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF477DA9-0276-4446-8DB2-02D8A4007B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{77EBEA60-C25F-4A61-824E-AA062B412CAC}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{A0874CCA-CDCE-4CC0-82C1-41589A7A116B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709A9FE8-A36F-4905-B1BD-52F5EB281991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44F2906-C5D9-4A0D-896A-7279BFAB7021}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>4.4225924429638727E-2</v>
+        <v>5.8419159339751184E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF477DA9-0276-4446-8DB2-02D8A4007B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F4BAF7-F643-4E1D-A0F6-C1CE076924B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{A0874CCA-CDCE-4CC0-82C1-41589A7A116B}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{1ABF7BE8-690F-4FCA-BA0C-63E89A10F2F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44F2906-C5D9-4A0D-896A-7279BFAB7021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC21F061-0BBB-4E71-B4A2-24F34778D89C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>5.8419159339751184E-2</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F4BAF7-F643-4E1D-A0F6-C1CE076924B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8118070B-0379-4597-BD6B-21F534AB36C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{1ABF7BE8-690F-4FCA-BA0C-63E89A10F2F9}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{43E3E8FE-5E3C-4E00-A5A4-0A0578B8FE16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC21F061-0BBB-4E71-B4A2-24F34778D89C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D103EA6-888F-4B2C-8312-79D45FC476AA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
